--- a/Detail.xlsx
+++ b/Detail.xlsx
@@ -19,10 +19,22 @@
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Icon</x:t>
+    <x:t>NewsCatID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DetailTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DetailContent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avatar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PublishDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attachment</x:t>
   </x:si>
   <x:si>
     <x:t>IsEnable</x:t>
@@ -31,13 +43,290 @@
     <x:t>Seq</x:t>
   </x:si>
   <x:si>
-    <x:t>2e95dc37-bc9a-493e-9831-db908ef37a10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>檢驗所新聞</x:t>
+    <x:t>Publisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dce95d32-fb67-4d65-9d83-f974ac2bce97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9433e2fb-5075-44b6-bbe1-06aac04dc2fb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信品醫事檢驗所公告-109年度休假日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;信品醫事檢驗所公告-109年度休假日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;信品醫事檢驗所公告-109年度休假日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;信品醫事檢驗所&lt;/span&gt; / 2019-12-09&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告事項：109年度休假日&lt;br&gt;&lt;span style="color: #000080;"&gt;公告下載連結：&lt;a title="109年度休假日-信品.pdf" href="https://www.upl.com.tw/upload/1575858355.pdf" target="_blank" rel="noopener"&gt;&amp;nbsp;109年度休假日-信品.pdf&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;說明：本所109年公休日如下：&lt;/p&gt;
+&lt;p&gt;&lt;a title="109年度休假日-信品" href="https://www.upl.com.tw/upload/1575858355.pdf" target="_blank" rel="noopener"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575858388.JPG" alt="信品/詠信中加公告-108年度休假日"&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;信品醫事檢驗所&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;負責人&amp;nbsp; &amp;nbsp;黃文平敬上&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575858800.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-09</x:t>
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>信品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874725da-dc3a-49d8-8ddb-90cbe3890a57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醫品診所/台灣優品醫事檢驗所公告-109年公休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;醫品診所/台灣優品醫事檢驗所公告-109年公休日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;醫品診所/台灣優品醫事檢驗所公告-109年公休日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;台灣優品醫事檢驗所&lt;/span&gt; / 2019-12-09&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告事項：109年公休日&lt;br&gt;&lt;span style="color: #000080;"&gt;公告下載連結：&lt;a title="109年度休假日" href="https://www.upl.com.tw/upload/1575859290.pdf" target="_blank" rel="noopener"&gt;&amp;nbsp;109年度休假日&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;說明：本所109年公休日如下：&lt;/p&gt;
+&lt;p&gt;&lt;a title="109年度休假日" href="https://www.upl.com.tw/upload/1575859290.pdf" target="_blank" rel="noopener"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575859224.JPG" alt="醫品診所/台灣優品醫事檢驗所公告-108年度休假日"&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="text-align: left;"&gt;&lt;span style="color: #000080;"&gt;&lt;strong&gt;＊若逢人事行政局發佈為休假日則全員休假(如颱風假)&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;謹此敬告&amp;nbsp; 祈祝福安！&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;不便之處敬請見諒&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;醫品診所暨台灣優品醫事檢驗所&amp;nbsp; 全體員工&amp;nbsp; 敬上&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575859531.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣優品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9bf72802-1cf5-4763-9424-f92c2c821762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>慈惠診所/優品醫事檢驗所公告-109年公休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;慈惠診所/優品醫事檢驗所公告-109年公休日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;慈惠診所/優品醫事檢驗所公告-109年公休日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-12-05&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告編號：108007&lt;br&gt;公告事項：109年公休日&lt;br&gt;&lt;span style="color: #000080;"&gt;公告下載連結：&lt;a title="109年度休假日-慈惠_優品.pdf" href="https://www.upl.com.tw/upload/1575540518.pdf" target="_blank" rel="noopener"&gt;&amp;nbsp;109年度休假日-慈惠_優品.pdf&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;說明：本所109年公休日如下：&lt;/p&gt;
+&lt;p&gt;&lt;a title="&amp;nbsp;109年度休假日-慈惠_優品.pdf" href="https://www.upl.com.tw/upload/1575540518.pdf" target="_blank" rel="noopener"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575540431.JPG" alt="慈惠診所/高雄優品公告-108年度休假日"&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;慈惠診所&amp;nbsp; / 優品醫事檢驗所&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;主任&amp;nbsp; &amp;nbsp;謝雅鈴敬上&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575540535.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高雄優品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e409926-afac-4db1-8a9e-a579b3c5576f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣優品醫事檢驗所(桃園)-109年度休假日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;台灣優品醫事檢驗所(桃園)-109年度休假日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;台灣優品醫事檢驗所(桃園)-109年度休假日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;台灣優品醫事檢驗所&lt;/span&gt; / 2019-12-05&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告事項：109年度休假日&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #000080;"&gt;&lt;strong&gt;公告下載連結：&lt;a title="109年度休假日-桃園優品.pdf" href="https://www.upl.com.tw/upload/1575528996.pdf" target="_blank" rel="noopener"&gt;&amp;nbsp;109年度休假日-桃園優品&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;公告內容：&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575529212.jpg" alt="桃園優品公休假日"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575539787.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1a4e4525-57a3-4a98-bedd-f94506c46517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>歡迎 國立中山大學人力資源管理所的企業參訪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;歡迎 國立中山大學人力資源管理所的企業參訪&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;歡迎 國立中山大學人力資源管理所的企業參訪&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-11-20&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="font-size: 18px; color: #000080;"&gt;&lt;strong&gt;優品的午後熱鬧時光!!&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;感謝&lt;span style="color: #993366;"&gt;&lt;strong&gt;國立中山大學人力資源管理所&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;安排今天的企業參訪課程，&lt;br&gt;非常榮幸可以與大家互相交流唷&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575268564.jpg" alt="中山大學人力資源管理所參訪" width="695" height="439"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575268552.jpg" alt="中山大學人力資源管理所參訪" width="690" height="426"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575268529.jpg" alt="中山大學人力資源管理所參訪" width="810" height="399"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575268740.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6a5d9b3b-e78b-4312-82cb-1efce49eccb3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣優品醫事檢驗所搬新家囉！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;台灣優品醫事檢驗所搬新家囉！&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;台灣優品醫事檢驗所搬新家囉！&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;台灣優品醫事檢驗所&lt;/span&gt; / 2019-10-11&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="font-size: 14px;"&gt;本所即將搬遷至&lt;strong&gt;&lt;span style="color: #993366;"&gt;桃園市桃園區介壽路286、288號6樓&lt;/span&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14px;"&gt;搬遷日期：&lt;span style="color: #000080;"&gt;&lt;strong&gt;10月18日(五)~10月19日(六)&amp;nbsp;&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;※&lt;strong&gt;搬遷期間本所門診暫停服務&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14px;"&gt;正式營運時間：&lt;span style="color: #000080;"&gt;&lt;strong&gt;10月21日(一) 早上8：00起&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 14px;"&gt;本所將繼續提供更專業的品質與服務！&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1571019546.png" alt="桃優搬家公告"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1571019945.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97f63445-4c33-4f96-b7ab-b22c9baf0f4e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>感謝高雄市立小港醫院 陳柏志 總級醫檢師　蒞臨指導</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;感謝高雄市立小港醫院 陳柏志 總級醫檢師　蒞臨指導&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;感謝高雄市立小港醫院 陳柏志 總級醫檢師　蒞臨指導&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-10-24&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;非常榮幸邀請到--&lt;span style="color: #993300;"&gt;&lt;strong&gt;高雄市立小港醫院&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span style="color: #993366;"&gt;&lt;strong&gt;陳柏志 總級醫檢師&lt;/strong&gt;&lt;/span&gt;　蒞臨指導&amp;nbsp;&lt;br&gt;非常新穎、實用的主題&lt;strong&gt;『獨立醫學實驗室的新思維』&lt;/strong&gt;，讓我們個個意猶未盡，獲益良多！希望能有更多機會互相交流唷！&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1572593735.jpg" alt="" width="800" height="389"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1572593746.jpg" alt="高優-小港醫院參訪" width="800" height="388"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1572593754.jpg" alt="高優-小港醫院參訪" width="800" height="388"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1572594142.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b3e264a6-8101-4035-aebe-bcc421a25863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>歡迎大嘉醫療集團蒞臨參訪高雄優品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;歡迎大嘉醫療集團蒞臨參訪高雄優品醫事檢驗所&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;歡迎大嘉醫療集團蒞臨參訪高雄優品醫事檢驗所&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-09-21&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;歡迎大嘉醫療集團吳院長賢伉儷，帶領全體護理人員蒞臨參訪&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;這個下午讓小編感受到醫療團隊對於檢驗與診所工作的重視與認真!!針對診所與檢驗所間的雙向資訊系統也相當積極探討，希望我們雙方的用心能讓檢驗品質更上一層樓唷!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569381178.jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569381190.jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569381205.jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569381213.jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569381230.jpg"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569381864.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d3780233-f993-4371-bb63-9fc44292931c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>慈惠診所/優品醫事檢驗所公告-108年公休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;慈惠診所/優品醫事檢驗所公告-108年公休日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;慈惠診所/優品醫事檢驗所公告-108年公休日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2018-11-27&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告日期：107/11/27&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;公告編號：107007&lt;br&gt;公告事項：108年公休日&lt;br&gt;&lt;span style="color: #000080;"&gt;公告下載連結：&lt;a title="108年度休假日-慈惠_優品.pdf" href="https://www.upl.com.tw/upload/1544065530.pdf" target="_blank" rel="noopener"&gt;&lt;img src="https://www.upl.com.tw/upload/1543203468.png" alt="慈惠診所/高雄優品公告下載" width="25" height="25"&gt;&amp;nbsp;108年度休假日-慈惠_優品.pdf&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;說明：本所108年公休日如下：&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1544064481.jpg" alt="慈惠診所/高雄優品公告-108年度休假日"&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;慈惠診所&amp;nbsp; / 優品醫事檢驗所&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p style="text-align: right;"&gt;&lt;span style="color: #993366;"&gt;&lt;em&gt;&lt;strong&gt;主任&amp;nbsp; &amp;nbsp;謝雅鈴敬上&amp;nbsp; &amp;nbsp; &amp;nbsp;&lt;/strong&gt;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1544064756.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bc842ecf-5689-49b2-8a88-e99ef935aca2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>台灣優品醫事檢驗所(桃園)-108年度休假日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=4"&gt;檢驗所新聞&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;台灣優品醫事檢驗所(桃園)-108年度休假日&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;台灣優品醫事檢驗所(桃園)-108年度休假日&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;桃園優品醫事檢驗所&lt;/span&gt; / 2018-11-27&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;公告日期：107.11.27&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;公告事項：108年度休假日&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #000080;"&gt;&lt;strong&gt;公告下載連結：&lt;a title="108年度休假日-桃園優品.pdf" href="https://www.upl.com.tw/upload/1544087012.pdf" target="_blank" rel="noopener"&gt;&lt;img src="https://www.upl.com.tw/upload/1543203468.png" alt="桃園優品公告下載" width="25" height="25"&gt;&amp;nbsp;108年度休假日-桃園優品.pdf&lt;/a&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;公告內容：&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1544087280.jpg" alt="桃園優品公休假日"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1544087455.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桃園優品醫事檢驗所</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,7 +689,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -416,22 +705,340 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="J7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="J8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>0</x:v>
+      <x:c r="J9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Detail.xlsx
+++ b/Detail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -46,10 +46,10 @@
     <x:t>Publisher</x:t>
   </x:si>
   <x:si>
-    <x:t>dce95d32-fb67-4d65-9d83-f974ac2bce97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9433e2fb-5075-44b6-bbe1-06aac04dc2fb</x:t>
+    <x:t>ea75c69c-d503-4f63-8fbf-a4b30efdce10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2b8ba87b-7887-4e91-9679-3a6ffa956b2c</x:t>
   </x:si>
   <x:si>
     <x:t>信品醫事檢驗所公告-109年度休假日</x:t>
@@ -81,7 +81,7 @@
     <x:t>信品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>874725da-dc3a-49d8-8ddb-90cbe3890a57</x:t>
+    <x:t>fc3d332b-d065-4e9c-9ceb-c9ddbcdcda7e</x:t>
   </x:si>
   <x:si>
     <x:t>醫品診所/台灣優品醫事檢驗所公告-109年公休日</x:t>
@@ -109,7 +109,7 @@
     <x:t>台灣優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>9bf72802-1cf5-4763-9424-f92c2c821762</x:t>
+    <x:t>07747085-1ddc-4aff-a060-ebfecc9dc1bf</x:t>
   </x:si>
   <x:si>
     <x:t>慈惠診所/優品醫事檢驗所公告-109年公休日</x:t>
@@ -138,7 +138,7 @@
     <x:t>高雄優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>9e409926-afac-4db1-8a9e-a579b3c5576f</x:t>
+    <x:t>b34b13f3-8ddb-4dd5-bb8a-056a60c000b4</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所(桃園)-109年度休假日</x:t>
@@ -160,7 +160,7 @@
     <x:t>https://www.upl.com.tw/upload/1575539787.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>1a4e4525-57a3-4a98-bedd-f94506c46517</x:t>
+    <x:t>0d2777b5-68a7-439e-99e5-f0c43cdbd532</x:t>
   </x:si>
   <x:si>
     <x:t>歡迎 國立中山大學人力資源管理所的企業參訪</x:t>
@@ -188,7 +188,7 @@
     <x:t>2019-11-20</x:t>
   </x:si>
   <x:si>
-    <x:t>6a5d9b3b-e78b-4312-82cb-1efce49eccb3</x:t>
+    <x:t>e07a4620-05a5-45e0-a11f-46e4e3e40819</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所搬新家囉！</x:t>
@@ -215,7 +215,7 @@
     <x:t>2019-10-11</x:t>
   </x:si>
   <x:si>
-    <x:t>97f63445-4c33-4f96-b7ab-b22c9baf0f4e</x:t>
+    <x:t>3d49339e-bbdc-40f4-82af-27bde2cd6bf8</x:t>
   </x:si>
   <x:si>
     <x:t>感謝高雄市立小港醫院 陳柏志 總級醫檢師　蒞臨指導</x:t>
@@ -242,7 +242,7 @@
     <x:t>2019-10-24</x:t>
   </x:si>
   <x:si>
-    <x:t>b3e264a6-8101-4035-aebe-bcc421a25863</x:t>
+    <x:t>c9e47b96-73a4-48a1-a528-be49759badbb</x:t>
   </x:si>
   <x:si>
     <x:t>歡迎大嘉醫療集團蒞臨參訪高雄優品醫事檢驗所</x:t>
@@ -277,7 +277,7 @@
     <x:t>2019-09-21</x:t>
   </x:si>
   <x:si>
-    <x:t>d3780233-f993-4371-bb63-9fc44292931c</x:t>
+    <x:t>b5e05cc1-3224-426d-8d09-4b1a9cac222d</x:t>
   </x:si>
   <x:si>
     <x:t>慈惠診所/優品醫事檢驗所公告-108年公休日</x:t>
@@ -303,7 +303,7 @@
     <x:t>2018-11-27</x:t>
   </x:si>
   <x:si>
-    <x:t>bc842ecf-5689-49b2-8a88-e99ef935aca2</x:t>
+    <x:t>2bdfc2fd-d33c-4a12-88ef-2818797108db</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所(桃園)-108年度休假日</x:t>
@@ -327,6 +327,713 @@
   </x:si>
   <x:si>
     <x:t>桃園優品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97b75573-dd49-41af-8fdb-ec151631751b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79b4eb7d-cff1-47b3-96f9-b985346b134c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信品醫事檢驗所-感恩套組專案</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=5"&gt;特惠消息&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;信品醫事檢驗所-感恩套組專案&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;信品醫事檢驗所-感恩套組專案&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2020-04-29&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="color: #993366;"&gt;&lt;strong&gt;信品醫事檢驗所&lt;/strong&gt;&lt;/span&gt;推出「&lt;span style="color: #0000ff;"&gt;&lt;strong&gt;感恩套組&lt;/strong&gt;&lt;/span&gt;」專案，專案期間即日起至&lt;span style="color: #0000ff;"&gt;&lt;strong&gt;109.06.20&lt;/strong&gt;&lt;/span&gt;止(逾期恕不受理)&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color: #008080;"&gt;套組內容如下：&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;血液常規 (CBC/DC)&lt;/li&gt;
+&lt;li&gt;尿液常規 (U/R)&lt;/li&gt;
+&lt;li&gt;飯前血糖（AC）&lt;/li&gt;
+&lt;li&gt;肝功能 (GOT,GPT,ALK-P,TP,ALB,GLO,A/G)&lt;/li&gt;
+&lt;li&gt;酒精性肝炎(脂肪肝) (r-GT)&lt;/li&gt;
+&lt;li&gt;膽功能 (T-BIL,D-BIL)&lt;/li&gt;
+&lt;li&gt;胰臟功能 (Amylase,Lipase)&lt;/li&gt;
+&lt;li&gt;腎功能 (BUN,CREA,eGFR)&lt;/li&gt;
+&lt;li&gt;尿酸/痛風 (UA)&lt;/li&gt;
+&lt;li&gt;三酸甘油脂（TG）&lt;/li&gt;
+&lt;li&gt;總膽固醇（T-CHO）&lt;/li&gt;
+&lt;li&gt;高,低密度膽固醇 (HDL-CHO,LDL-CHO)&lt;/li&gt;
+&lt;li&gt;低/高密度膽固醇比值 (LDL-C/HDL-C)&lt;/li&gt;
+&lt;li&gt;血管硬化指數 (T-CHO/HDL-C)&lt;/li&gt;
+&lt;li&gt;類風濕性關節炎定量檢查 (RA-factor)&lt;/li&gt;
+&lt;li&gt;體內發炎反應定量(CRP)&lt;/li&gt;
+&lt;li&gt;肝癌篩檢 (AFP)&lt;/li&gt;
+&lt;li&gt;大腸癌篩檢 (CEA)&lt;/li&gt;
+&lt;li&gt;乳癌篩檢 (CA-153) /&amp;nbsp;(男性):攝護腺癌 (PSA)&lt;/li&gt;
+&lt;li&gt;卵巢癌篩檢 (CA-125) (請避開生理期) /&amp;nbsp;胰臟癌 (CA-199)&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;span style="color: #993366;"&gt;&lt;strong&gt;&lt;br&gt;可加驗：&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;維他命D3(Vit D3)&lt;/li&gt;
+&lt;li&gt;血清鐵(Fe)&lt;/li&gt;
+&lt;li&gt;總鐵結合能力(TIBC)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;&lt;br&gt;報告時效：2天&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;詳情請見DM：&lt;/p&gt;
+&lt;p&gt;&lt;a title="信品感恩套組" href="https://www.upl.com.tw/upload/1588129144.jpg" target="_blank" rel="noopener"&gt;&lt;img style="width: auto; height: auto; max-width: 70%; max-height: 70%;" src="https://www.upl.com.tw/upload/1588129144.jpg" alt="信品感恩套組"&gt;&lt;/a&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1588129825.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>優品生醫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4f3ed32f-a936-45c6-a24d-2265d4a7429c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【心血管健康管理檢查】專案</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=5"&gt;特惠消息&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;【心血管健康管理檢查】專案&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;【心血管健康管理檢查】專案&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;信品醫事檢驗所&lt;/span&gt; / 2019-12-06&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="color: #000080;"&gt;&lt;strong&gt;最近天氣變冷，早晚溫差大，心血管疾病很容易一觸即發，造成無可挽回的悲劇，本所推出【心血管健康管理檢查】專案，來為您的的健康把關。&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #008080; font-size: 18px;"&gt;&lt;strong&gt;&lt;br&gt;檢驗項目：&lt;br&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;同半胱胺酸（Homocysteine）&lt;/li&gt;
+&lt;li&gt;高敏感性C反應蛋白（hs CRP）&lt;/li&gt;
+&lt;li&gt;N端原生腦利鈉尿肽（NT-proBNP）&lt;/li&gt;
+&lt;li&gt;總膽固醇（T-CHO）&lt;/li&gt;
+&lt;li&gt;三酸甘油脂（TG）&lt;/li&gt;
+&lt;li&gt;高密度膽固醇（HDL-CHO）&lt;/li&gt;
+&lt;li&gt;低密度膽固醇（LDL-CHO）&lt;/li&gt;
+&lt;li&gt;低密度膽固醇/高密度膽固醇比值（LDL/HDL）&lt;/li&gt;
+&lt;li&gt;總膽固醇/高密度膽固醇比值（CHO/HDL）&lt;/li&gt;
+&lt;li&gt;肌酸磷激酶（CPK）&lt;/li&gt;
+&lt;li&gt;飯前血糖（Ac）&lt;/li&gt;
+&lt;li&gt;血液常規（CBC/DC）&lt;/li&gt;
+&lt;li&gt;肝功能（GOT,GPT,ALP,TP,ALB,GLO,A/G）&lt;/li&gt;
+&lt;li&gt;酒精性肝炎（脂肪肝）（r-GT）&lt;/li&gt;
+&lt;li&gt;腎功能（BUN,CREA）&lt;/li&gt;
+&lt;li&gt;尿酸/痛風（UA）&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;&lt;span style="font-size: 18px;"&gt;&lt;a title="心血管健康管理檢查" href="https://www.upl.com.tw/xpl/project_detail/613?scroll=1"&gt;&lt;br&gt;&amp;nbsp;&amp;gt;&amp;gt;【心血管健康管理檢查】專案套組介紹&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #ff0000;"&gt;&lt;strong&gt;&lt;br&gt;&lt;span style="color: #0000ff;"&gt;※採血管:生化管，紫管，灰管（請避免隔夜血,溶血）&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span style="color: #0000ff;"&gt;&lt;strong&gt;報告時效:1天&lt;/strong&gt; &lt;/span&gt;&lt;br&gt;&lt;span style="color: #ff0000;"&gt;&lt;strong&gt;專案價即日起至109.02.29止（逾期恕不受理）&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h4&gt;&lt;a title="立即線上留言" href="https://www.upl.com.tw/contact.php"&gt;&lt;img style="float: left;" src="https://www.upl.com.tw/upload/1562142453.png" alt="	線上留言" width="61" height="45"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;有任何問題，歡迎聯絡我們！！&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/a&gt;&lt;/h4&gt;
+&lt;h4&gt;&amp;nbsp;&lt;/h4&gt;
+&lt;h4&gt;&lt;a title="立即線上預約檢驗" href="https://www.upl.com.tw/booking.php"&gt;&lt;img src="https://www.upl.com.tw/upload/1562142738.png" alt="線上預約" width="228" height="70"&gt;&lt;/a&gt;&lt;/h4&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575622327.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45e0db52-bff7-4e44-952d-2f11dd220484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※感恩母親節※專案健檢</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=5"&gt;特惠消息&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;※感恩母親節※專案健檢&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;※感恩母親節※專案健檢&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-05-09&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;時時掛心家庭的媽媽們，辛苦了!&lt;/p&gt;
+&lt;p&gt;您的平安與健康是孩子們最大的心願&lt;span class="text_exposed_show"&gt;&lt;br&gt;優品推出母親節健檢專案，&lt;br&gt;愛家人..同時也要更&lt;span class="_5mfr"&gt;&lt;span class="_6qdm"&gt;❤&lt;/span&gt;&lt;/span&gt;自己唷!&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;文件下載&lt;/strong&gt;&lt;/span&gt;：&lt;a href="https://www.upl.com.tw/upload/1569395708.png" target="_blank" rel="noopener"&gt;&lt;img src="https://www.upl.com.tw/upload/1543203468.png" width="30" height="30"&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.upl.com.tw/upload/1569395708.png" target="_blank" rel="noopener"&gt;&lt;span class="text_exposed_show"&gt;&lt;img style="width: 600; height: 569; max-width: 70%; max-height: 70%;" src="https://www.upl.com.tw/upload/1569395708.png"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569395075.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-05-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0c69280b-88a8-488f-b10e-7bfa3d853ffe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e01c95a2-19dd-4d4e-8471-68fa9fb7fda0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COVID-19新聞的真假 -- 人造病毒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;COVID-19新聞的真假 -- 人造病毒&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;COVID-19新聞的真假 -- 人造病毒&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2020-03-13&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;&lt;br&gt;一直以來，新冠病毒是人造病毒的說法，爭議不斷。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;最早英國BBC的報導，說是來自於武漢病毒研究所，是一種生物武器，隨後遭美國華盛頓郵報駁斥。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;之後，印度阿三也語出驚人，說新冠病毒帶有愛滋病毒的基因。小編的同學很高興，因為如此一來，將來新冠病毒的疫苗上市，還可以同時預防愛滋病。不知這位同學為何對愛滋疫苗如此迫切，但他肯定要大失所望，因為印度阿三的論文自己下架。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;不僅國際間熱烈討論，國內不諻多讓，「俄羅斯官方認證：武漢肺炎是人工病毒」的說法隨處可見，似乎已成定論，更出現有專家在新冠病毒基因序列中找到「P-Shuttle SN Vector」這種人造基因載體的證據。小編在期刊網站搜尋P-Shuttle SN Vector，卻無所獲，因為所有記者都拼錯了，是「pShuttle」，p要小寫，大小寫差很多。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;很快地，另一群好事者又提出反駁：基因資料庫比對的結果，根本沒有什麼pShuttle的鬼影子；至於俄羅斯官方認證，根本是外行人的誤會：將俄文翻成英文，發現是好事者將「recombinant virus」(重組病毒)一口咬定是人工重組，其實病毒本身在自然狀態下就會發生基因重組，原文並未表明是人工重組。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;爭議中，小編好奇的是，如果是人造的，那是「誰」造的？這就比較少人討論了。在臺灣人的觀點，當然是萬惡的共匪。不過，在對岸的立場，值美中貿易戰時，怎能不懷疑是美帝為了重創中國經濟而放的毒。伊朗疫情慘重，也和俄羅斯一鼻孔出氣，認為是美國。&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;究竟是不是人造病毒？嚴謹的科學說法是：無法肯定！&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1590124584.png"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1590124738.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>759645d1-5c43-4594-bec6-0d58b2f46cfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COVID-19新聞的真假 -- 吃蝙蝠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;COVID-19新聞的真假 -- 吃蝙蝠&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;COVID-19新聞的真假 -- 吃蝙蝠&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2020-02-21&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;&lt;br&gt;有些媒體， 特別是國外的媒體， 瘋傳一段YouTube的影片。 影片中有位中國女性吃蝙蝠， 讓人誤以為影片拍攝地點是武漢，更讓人誤以為吃蝙蝠是COVID-19的發生原因。這個影片騙得了外國人，騙不了我們。 請注意影片末1:50處的一段旁白： 品嘗完「帕勞」蘇杭海鮮酒樓的美食...。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="o9v6fnle cxmmr5t8 oygrvhab hcukyx3x c1et5uql ii04i59q"&gt;
+&lt;div dir="auto"&gt;「帕勞」在台灣翻成帛琉。 這段影片是2016年拍攝，地點是西太平洋的島國帛琉， 與武漢無關。吃蝙蝠也與COVID-19無直接關係，據科學期刊Science的文獻， 蝙蝠與人之間，另有他種動物作為中間宿主。&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div dir="auto"&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;p&gt;影片連結：&lt;a title="How could these Chinese ladies eat the bat?! 蝙蝠菜單" href="https://www.youtube.com/watch?v=oKNz3FuFRIM&amp;amp;fbclid=IwAR2t2QDb1LQDWRP2siBkX-sCVY6lFzQ_40rNwxa3VxiwPx0jGopjA3h2CMY" target="_blank" rel="noopener"&gt;&amp;gt;&amp;gt;How could these Chinese ladies eat the bat?! 蝙蝠菜單&lt;/a&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1590124483.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-02-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d87c9b6a-f9ae-4d64-bde4-df0c7fd66f86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>關心自己的身體，避免憾事發生！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;關心自己的身體，避免憾事發生！&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;關心自己的身體，避免憾事發生！&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;高雄優品醫事檢驗所&lt;/span&gt; / 2019-11-27&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;為了避免遺憾的發生，請一定要多關心自己，定期做健康檢查!&lt;br&gt;氣溫變化大的時節，更應該留意&lt;span style="color: #ff0000;"&gt;&lt;strong&gt;心血管疾病&lt;/strong&gt;&lt;/span&gt;的威脅&lt;br&gt;&lt;br&gt;&lt;/p&gt;
+&lt;p&gt;優品推出&lt;span style="color: #993366;"&gt;&lt;strong&gt;【心血管健檢專案】&lt;/strong&gt; &lt;/span&gt;，讓我們為您的健康把關!&lt;br&gt;&amp;lt;&amp;lt; 受檢前請記得空腹8小時 &amp;gt;&amp;gt;&lt;br&gt;&lt;br&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;-引用自中時電子報-&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a title="高以翔驚傳猝死 醫揭背後主因" href="https://www.chinatimes.com/realtimenews/20191127002275-260405?chdtv&amp;amp;fbclid=IwAR2po7R0kZ6pCvZSyYP0LiOQ3UNQSJWTwsbUwUztU7_SeKhPKPXjWdJ9BUY" target="_blank" rel="noopener"&gt;https://www.chinatimes.com/realtimenews/20191127002275-260405?chdtv&amp;amp;fbclid=IwAR2po7R0kZ6pCvZSyYP0LiOQ3UNQSJWTwsbUwUztU7_SeKhPKPXjWdJ9BUY&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 18px; color: #000080;"&gt;&lt;strong&gt;&lt;br&gt;高以翔驚傳猝死 醫揭背後主因&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;35歲的藝人高以翔今在錄製大陸節目「追我吧」時驚傳昏倒猝死，根據大陸浙江新聞證實，高以翔緊急送醫後仍回天乏術。醫師推測，高以翔疑似過勞又熬夜進行高強度運動，才會發生不測。&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;據了解，高以翔今天凌晨拍攝節目時突然倒地，《經濟日報》報導，台大醫院急診醫學部及內科部主治醫師方震中表示，臨床上最常見的原因是長時間熬夜或過勞，造成身體極大壓力，當腎上腺素過度分泌，恐導致心律不整、心室頻脈，甚至導致猝死。&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;根據調查，亞太區中，台灣猝死發生率僅次於澳洲，因心臟驟停而猝死的案例，有高達7成都是因心臟疾病引起的心室頻脈，短時間出現致命性的心律不整所致，一旦發生，恐怕只有5％的人可以逃過死劫。&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;方震中呼籲民眾盡量少熬夜，避免過勞，心因性猝死的四大高危險群：包括&lt;strong&gt;&lt;span style="color: #ff0000;"&gt;心血管疾病、心肌病變、心臟功能先天不佳&lt;/span&gt;&lt;/strong&gt;、曾有昏厥經驗，以及家中有心臟病史的人，一定要&lt;span style="color: #000080;"&gt;&lt;strong&gt;定時健康檢查&lt;/strong&gt;&lt;/span&gt;，避免不幸發生。&lt;/p&gt;
+&lt;p&gt;&lt;a title="優品心血管健檢專案" href="https://www.upl.com.tw/upload/1575269436.jpg" target="_blank" rel="noopener"&gt;&lt;br&gt;優品醫事檢驗所-心血管健檢專案&lt;img src="https://www.upl.com.tw/upload/1543203468.png" alt="" width="20" height="20"&gt;&lt;br&gt;&lt;br&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.upl.com.tw/upload/1575269436.jpg" target="_blank" rel="noopener"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1575269436.jpg" alt="優品醫事檢驗所-心血管健檢專案" width="680" height="960"&gt;&lt;/a&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1575269765.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bd263d9a-5c79-4db6-8838-5a84b59cd51a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>千金難買早知道</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;千金難買早知道&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;千金難買早知道&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品健康新知&lt;/span&gt; / 2019-11-07&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="color: #000080;"&gt;&lt;strong&gt;您知道嗎？台灣107年65歲以上失智人口逾26萬，並以40分鐘就有一人罹患失智症的速度增加。&lt;br&gt;&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;以下幾種情況，是否也發生在您生活中呢？&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;三高族群&lt;/li&gt;
+&lt;li&gt;長期熬夜&lt;/li&gt;
+&lt;li&gt;身材福態&lt;/li&gt;
+&lt;li&gt;年過不惑&lt;/li&gt;
+&lt;li&gt;家族中有人罹患失智症&lt;/li&gt;
+&lt;li&gt;菸酒不離手&lt;/li&gt;
+&lt;li&gt;壓力山大、罹患憂鬱症&lt;/li&gt;
+&lt;li&gt;頭部受過外傷&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 18px; color: #993366;"&gt;&lt;strong&gt;阿茲海默症風險基因檢測 - APO E&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;為您和摯愛掌握&lt;span style="color: #339966;"&gt;健康人生控球權&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;a title="APO E（阿茲海默症基因）項目介紹" href="https://www.upl.com.tw/service_detail.php?sid=587"&gt;&lt;strong&gt;&lt;span style="font-size: 18px;"&gt;&amp;gt;&amp;gt;APO E（阿茲海默症基因）檢驗項目介紹&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a title="阿茲海默症基因檢驗(APO E)" href="https://www.upl.com.tw/upload/1573123798.pdf" target="_blank" rel="noopener"&gt;&lt;span style="font-size: 18px;"&gt;&lt;img src="https://www.upl.com.tw/upload/1543203468.png" width="20" height="20"&gt;&amp;nbsp;DM下載&lt;/span&gt;&lt;br&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1573123493.jpg" alt="阿茲海默症基因"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1573123757.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>優品健康新知</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b3500f77-cd26-457c-bec6-7776612c9ef0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>突如其來的打擊—心臟猝死</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;突如其來的打擊—心臟猝死&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;突如其來的打擊—心臟猝死&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品醫事檢驗所&lt;/span&gt; / 2018-05-17&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;h5&gt;&lt;span style="font-size: 18px; color: #800000;"&gt;&lt;strong&gt;談心臟猝死&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span style="font-size: 18px; color: #ff0000;"&gt;&lt;strong&gt;突如其來的打擊—心臟猝死&lt;/strong&gt;&lt;/span&gt;&lt;/h5&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;所謂&lt;strong&gt;「心臟猝死」&lt;/strong&gt;，是指在沒有其它潛在致死病因的情況下，由於心血管系統問題所導致的突然及非預期性死亡。通常，是在症狀發作之後一小時之內死亡。&lt;br&gt;&lt;br&gt;&lt;span style="color: #993366;"&gt;&lt;strong&gt;危機四伏—不知道的危險因子&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;心血管疾病有愈來愈年輕化的傾向，已經不再只是老人家的專利。很多壯年族群不知道自己有心血管疾病的危險因子，加上外在的環境因素，例如工作壓力，很容易在血壓上升，就突然發作，造成猝死。對於一家之主的爸爸，相夫教子的媽媽，為了還在讀國小的寶貝，能不警覺嗎？&lt;br&gt;&lt;br&gt;請花幾秒鐘，檢視您的狀況！如果您有&lt;strong&gt;一個以上&lt;/strong&gt;的 ，表示您得到心血管疾病的機率比沒有 的人&lt;strong&gt;&lt;span style="color: #ff0000;"&gt;高2-3倍&lt;/span&gt;&lt;/strong&gt;。：&lt;br&gt;家族成員中，有人有&lt;span style="color: #003366;"&gt;&lt;strong&gt;心臟病史&lt;/strong&gt;&lt;/span&gt;、&lt;strong&gt;&lt;span style="color: #003366;"&gt;肥胖&lt;/span&gt;&lt;/strong&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;血脂肪偏高&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;菸酒過量&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;代謝症候群&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;高血壓&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;糖尿病&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #003366;"&gt;&lt;strong&gt;壓力&lt;/strong&gt;&lt;/span&gt;。&lt;br&gt;&lt;br&gt;如果您出現了下列一個或以上的症狀，有可能是發作的警訊：&lt;br&gt;&lt;br&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;胸痛或胸悶&lt;/li&gt;
+&lt;li&gt;突然呼吸急促&lt;/li&gt;
+&lt;li&gt;出現胸部壓榨感或噁心&lt;/li&gt;
+&lt;li&gt;頭暈眼花或突然出冷汗&lt;br&gt;&lt;br&gt;&lt;strong&gt;休息一下就好了？&lt;span style="color: #ff0000;"&gt;未必！&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;br&gt;有些人可能休息一下就好了，但也因而忽略了潛在的危險。請定期做健康檢查，瞭解您的身體況狀，追求健康的生活方式，遠離菸酒等危險因子。多多關心您的&lt;span style="color: #800000;"&gt;&lt;strong&gt;血壓&lt;/strong&gt;&lt;/span&gt;、&lt;span style="color: #800000;"&gt;&lt;strong&gt;血脂&lt;/strong&gt;&lt;/span&gt;及&lt;span style="color: #800000;"&gt;&lt;strong&gt;血糖&lt;/strong&gt;&lt;/span&gt;的況狀，才是避凶趨吉之道。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;為了您的健康，優品提供了愛心專案，歡迎來電洽詢。&lt;br&gt;&lt;br&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1526534216.jpg" alt="優品愛心專案"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1526540351.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-05-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>優品醫事檢驗所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510d7182-de78-4a16-922a-9841d7660fef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>別等到不孕才檢查排卵功能，年過30就可追蹤AMH指數！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;別等到不孕才檢查排卵功能，年過30就可追蹤AMH指數！&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;別等到不孕才檢查排卵功能，年過30就可追蹤AMH指數！&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;大家健康雜誌網站&lt;/span&gt; / 2018-05-15&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;&lt;span style="color: #008080;"&gt;現代人普遍晚婚，女性生育年齡也逐漸提高，然而，在忙碌的工作和生活壓力下，卵巢功能衰退的比例也逐年增加，愈來愈多年僅30多歲的女性，卵巢功能已比實際年齡還要老好幾歲，恐會面臨沒卵可生的狀態！臨床統計也發現，約2～3成求助不孕治療的夫妻，是因女方卵巢功能衰退導致。如何判斷卵巢功能是否衰退？不孕門診常用的AMH（抗穆勒氏管荷爾蒙）濃度檢測又是什麼？&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;/strong&gt;出處／ 大家健康雜誌網站　2018-03-20 &lt;br&gt; 採訪整理／ 張郁梵　圖／PEXELS&lt;strong&gt;&lt;span style="color: #008080;"&gt;&lt;br&gt;&lt;/span&gt;&lt;/strong&gt;&amp;nbsp;&lt;br&gt;&lt;strong&gt;&lt;span style="color: #ff6600;"&gt;抽血就能驗&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;&lt;span style="color: #ff6600;"&gt;AMH可判斷卵巢功能&lt;br&gt;&lt;/span&gt;&lt;/strong&gt;&lt;br&gt;奇美醫院生殖醫學中心主任蔡永傑醫師解釋，AMH為抗穆勒氏管荷爾蒙的縮寫，是一種由卵巢小卵泡所分泌的醣類蛋白，其作用在於控制原始濾泡的發育速度，使卵子能以穩定的週期成熟排出，避免同時間有過多卵子成熟，減緩卵巢中卵子的消耗速度，進而造成卵巢提早老化。&lt;/p&gt;
+&lt;p&gt;因此，在預測卵巢卵泡庫存量上有顯著的準確度，就好像是檢測卵泡銀行中的存款數目有多少的重要指標。卵泡剩越少，AMH就越低，若AMH濃度小於2.0（ng/ml），表示卵子的庫存量已處於低水平；小於1.0（ng/ml）代表「嚴重卵巢衰退」；當濃度越趨近於0，則越接近「卵巢衰竭」。&lt;br&gt;一般來說，女性在青春期結束前，AMH分泌量會逐漸上升至穩定；待約25歲後，AMH分泌量會逐年下降；而停經後，因卵巢功能老化，AMH分泌量會降至最低，故AMH是評估卵巢中卵子存量及卵巢老化程度的重要指標。&lt;/p&gt;
+&lt;p&gt;相對於濾泡刺激素及卵巢空腔濾泡數（AFC）而言，AMH檢測方便，抽血便可測得。加上其數值穩定性高，可有效預測卵巢對治療或藥物的反應程度，使得AMH已成為不少計畫生育的女性不可不知的生理指標。&lt;br&gt;「AMH是協助女性掌握卵巢功能的重要指標！」然而，蔡永傑主任卻發現女性對於AMH常有以下兩大迷思，不僅容易錯過黃金生育期，也忽略自己的健康狀況：&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;br&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;迷思１&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;年紀大、求子未果，才需做AMH檢測？&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;正解》約2～3成不孕女性AMH都偏低，女性30歲起可將AMH納入年度檢查項目，以便瞭解卵子庫存量，及時生育。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;br&gt;隨著國人初婚年齡逐年上升，頭胎年齡也越來越高。根據2016年行政院統計，10年來女性頭胎年齡已從28.1歲增加至30.7歲，其中35～39歲、40～44歲女性，更較10年前生產人數分別增加1倍及1.6倍。蔡永傑主任強調，女性隨著年齡增加，懷孕的難度會逐年上升，「從生理學來看，女性黃金生育年齡為21～28歲。」&lt;br&gt;蔡永傑主任補充說明，會有黃金生育年齡的限制，主要是因女性出生時體內約有100萬顆卵子，初經來時，卵子會消耗一半，之後隨著每次生理期，卵子的庫存量會逐年減少，到了40歲，卵子數目不但不多，且7成以上的卵子可能會出現染色體異常，約只剩3成可以使用。如果想要進行人工生殖，就必須多做幾次取卵療程，才能有足夠數量的卵子進行人工授精，整個過程對女生而言相當辛苦。&lt;/p&gt;
+&lt;p&gt;蔡永傑主任也分享自己的臨床經驗，多數女性認為AMH檢測是年紀大、治療不孕症才需進行的卵巢功能評估，但有2～3成進入診間尋求不孕症治療的年輕女性，都是因AMH濃度不足，可使用的卵子數量已有限，造成不孕。&lt;br&gt;蔡永傑主任甚至還遇過一名年僅32歲的少奶奶，夫妻認真做人三年多，肚皮卻毫無動靜。婆婆心急帶她至婦產科求診，檢查才發現其AMH指數隻有0.1（ng/ml），不僅卵子庫存亮紅燈，卵巢功能也幾乎衰退，相當於50歲婦人！（正常30多歲女性AMH指數應該超過3.0以上）&lt;/p&gt;
+&lt;p&gt;蔡永傑主任提醒，一旦AMH指數過低，即使使用人工授精或試管嬰兒胚胎治療，懷孕率也會大幅降低。所以，若能及早進行AMH檢測，就可事先掌握卵巢卵泡庫存量，做好懷孕安排。&lt;br&gt;蔡永傑主任強調，由於AMH濃度不受女性生理週期影響，任何一天檢測其濃度皆十分穩定，甚至僅需18分鐘即可測出結果，是十分便利的一項檢查。女性32歲之後，卵子數量就會明顯減少，呼籲女性30歲起可將AMH納入年度檢查項目，以便瞭解自身卵子庫存量，及時掌握自己的生育條件。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;br&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;迷思２&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;span style="color: #ff6600;"&gt;&lt;strong&gt;AMH檢測只能用在不孕症治療！&lt;br&gt;&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;正解》錯！可用AMH檢測是否有多囊性卵巢症，並預測更年期報到時間。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;br&gt;許多民眾常誤以為，AMH檢測僅能用在不孕症治療前期的卵巢功能評估，但蔡永傑主任指出，AMH還可瞭解卵巢年齡、是否有多囊性卵巢，甚至可預測更年期報到時間。國外研究曾指出，若AMH＞5（ng/ml），即可合理診斷為多囊性卵巢症，全球約有5～10％的育齡婦女受其影響而難以懷孕；35～39歲女性AMH值若低於1.0 ng/Ml，10～12年內，即有可能提前步入更年期！ &lt;br&gt;目前卵巢早衰並無回春的藥可治療，加上卵巢衰竭沒有明顯症狀，頂多就是經期不規律，因此容易被女性忽略。蔡永傑主任提醒，卵巢衰竭、沒有卵子就會進入更年期，連帶出現骨質疏鬆、心血管疾病。預防卵巢惡化，只能透過戒菸、戒酒等不良習慣，養成早睡早起、均衡飲食的規律生活，以免更年期提早報到。&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1526540257.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大家健康雜誌網站</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6067a1b6-f674-4769-9ccf-bdc0035749b9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醫師同為病友 蔡文展：僵直性脊椎炎患者要注意虹彩炎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=17"&gt;健康新知&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;醫師同為病友 蔡文展：僵直性脊椎炎患者要注意虹彩炎&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;醫師同為病友 蔡文展：僵直性脊椎炎患者要注意虹彩炎&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;健康遠見/滕淑芬&lt;/span&gt; / 2018-04-17&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;知名歌手周杰倫、浩角翔起的成員浩子、阿Ken、余天和演員李易等人的共同處，除了都是藝人外，他們也都是僵直性脊椎炎的病友。&lt;br&gt;有「明星病」之稱的僵直性脊椎炎，全台約有7萬名患者，好發於20~40歲的男性，典型症狀就是下背痛和晨間僵硬。&lt;br&gt;&lt;br&gt;一般腰酸背痛，通常不會超過三個月，受傷引起的下背痛，復健完睡了一覺也都會覺得舒緩；僵直性脊椎炎剛好相反，早上醒來，常痛到無法下床，左邊、右邊試了好幾次，終於撐起身體下床後，腳踏地的剎那間疼痛又來襲，一直到白天筋骨慢慢活動後，才漸漸舒緩。顧名思義，僵直性脊椎炎雖與脊椎發炎有關，但其實這是全身性免疫疾病，極可能侵犯到其他器官，如眼睛、腸胃、皮膚等，其中發生於眼睛的虹彩炎是最常見的共病。&lt;br&gt;&lt;br&gt;「兩者關係的真正機轉還不太清楚，可能與HLA-B27基因有關，通常虹彩炎只要點一個月的類固醇眼藥水就會好，但也有少數難纏的病人，會反覆發作，對眼睛的傷害就很大，」中華民國風濕病醫學會理事長，也是高雄醫學大學附設醫院免疫風濕內科主治醫師蔡文展就有不少從眼科轉介過來，視力模糊已影響生活的病人。&lt;br&gt;&lt;br&gt;臨床統計，有三到四成的僵直性脊椎炎患者，終其一生會發作一次虹彩炎。中山醫學大學附設醫院風濕免疫過敏科主任魏正宗，幾年前也深受虹彩炎所苦，當時因在過年期間值班，工作壓力大，加上長時間盯著螢幕、生活作息混亂引發虹彩炎，眼睛出現紅腫、視力模糊、畏光、流眼淚等症狀。魏正宗說，虹彩炎一定要及早治療，因為如果反覆發作，最後造成圓形的瞳孔變形，甚至影響房水排出、眼壓過高，演變成青光眼，就有失明危機。他建議，當一年反覆出現一次虹彩炎以上，最好轉診至風濕免疫科，依照病情需要接受生物製劑治療，控制病情。&lt;br&gt;&lt;br&gt;「僵直性脊椎炎是慢性病，目前無法治癒，患者要學會與病和平相處，」完全可以體會病人痛苦的蔡文展，自己也是僵直性脊椎炎的病友。&lt;br&gt;&lt;br&gt;民國67年，他念高雄醫學大學醫學系五年級時，常覺得腰痠背痛，當時免疫科醫師較少，骨科醫師認為他是椎間盤突出，只開了疼痛藥。一直到他成為實習醫師，累積更多醫學知識，加上其他兄弟也有同樣症狀才覺得不太對勁；也因為自身病痛，原本想走胸腔內科的他，將志向轉至風濕免疫科。&lt;br&gt;&lt;br&gt;他提醒，病友尤其不可過度食補。「免疫疾病不是免疫力下降，而是過剩或免疫系統亂了，傳統進補是要增加免疫力，反其道而行，對病人更不好，正常飲食即可。」與病共處30年的蔡文展說，脊椎發炎久了，會產生骨質疏鬆和疼痛兩大問題，但「愈不動愈容易骨質疏鬆，愈不動也愈痛。」看診忙碌的他，固定一週游泳一次，他也鼓勵病人要多運動，而游泳就是最好的運動，因為水中浮力可以減緩脊椎負擔。&lt;br&gt;&lt;br&gt;病情穩定的病友，仍要長期追蹤，每4~6個月回診抽血，檢驗發炎指標，配合適當運動，就可免於疼痛纏身。&lt;br&gt;&lt;br&gt;轉載自【健康遠見網站】：&lt;a title="僵直性脊椎炎新聞" href="https://health.gvm.com.tw/webonly_content_14833.html" target="_blank" rel="noopener"&gt;&amp;gt;&amp;gt;https://health.gvm.com.tw/webonly_content_14833.html&lt;/a&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1526540499.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>健康遠見/滕淑芬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b967fa73-71ee-404e-8548-d67884d268f3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99dd2e53-1385-4903-9f69-7183c8cc0d11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albumin (白蛋白)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;Albumin (白蛋白)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;Albumin (白蛋白)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-10-30&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;肝指數之一。&lt;/p&gt;
+&lt;p&gt;&lt;br&gt;白蛋白是蛋白質的一種，約佔全部蛋白質的60%。它之所以成為肝指數的一員，一個重要特徵是：它是「肝臟製造」！換言之，如果肝臟的製造功能不佳，白蛋白的產能就會下降。如果說，GPT是肝臟受損的指標；那麼，白蛋白是肝臟功能不好的徵兆。&lt;span class="text_exposed_show"&gt;&lt;br&gt;腸胃科醫師要診斷一個人是否是肝硬化，白蛋白是不可或缺的診斷依據。腎臟科醫師在診斷腎臟病時，也會看白蛋白有沒有些微下降。因為。腎臟病會有蛋白尿，白蛋白也會被排到尿中。雖然肝臟產量沒問題，但有部份「流」掉啦！&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569383806.jpg" alt="腳腫"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;以下文章轉載自【肝癌防治學術基金會】好心肝會刊-第84期&lt;/strong&gt;&lt;/span&gt;：&lt;a href="https://www.liver.org.tw/journalView.php?cat=59&amp;amp;sid=729&amp;amp;page=1&amp;amp;fbclid=IwAR0UYXOWjaheoTiOAbeGzZq-5nYnmDz12p842LGGNXXeGHuZ_4qA-MvK_48"&gt;https://www.liver.org.tw/journalView.php?cat=59&amp;amp;sid=729&amp;amp;page=1&amp;amp;fbclid=IwAR0UYXOWjaheoTiOAbeGzZq-5nYnmDz12p842LGGNXXeGHuZ_4qA-MvK_48&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h1&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;腳腫，是不是肝不好？&lt;/strong&gt;&lt;/span&gt;&lt;/h1&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;引起下肢水腫的原因不少，心、肝、腎或內分泌系統出了問題，都可能導致腳水腫；若是因肝不好而引發的腳腫，多半已有嚴重肝硬化，且可能還伴隨其他併發症。&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;諮詢╱林倩宇（好心肝門診中心肝膽腸胃科專任主治醫師、臺大醫院內科部兼任主治醫師）&lt;/div&gt;
+&lt;div&gt;撰稿╱鍾碧芳&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;陳媽媽本來就胖胖的，兩條腿也蠻粗壯，不過最近好像特別腫，平常穿的鞋子都差點塞不進去，女兒覺得不對勁，帶媽媽就醫，醫師按壓陳媽媽的小腿，加上腹部超音波、抽血檢查報告，才知道陳媽媽竟然已經有嚴重肝硬化！&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;為什麼腳水腫最後會追查出是肝臟出問題呢？這要從肝臟的功能說起。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;肝臟掌管了體內很重要的代謝功能，包括合成、加工、解毒、排泄等，其中的合成功能又以白蛋白的合成為人體生理運作最重要且必須的工作。白蛋白是血漿中最主要的蛋白質，主要作用是維持血漿中的滲透壓，吸收組織間液進入微血管中，因此，當肝臟機能異常、白蛋白合成不足時，水分就會從血管跑到 組織間隙，造成水腫。水腫表現在下肢，就是下肢水腫，俗稱的「腳氣」（台語）。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;腳腫的可能原因&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;不過，腳水腫也不見得一定是肝不好引起。常見的情況有以下幾種：&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;一、肢體靜脈或淋巴回流受阻：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;腳腫有分兩種，局部性的水腫或是全身性的水腫。局部性的水腫以肢體靜脈或淋巴回流受阻為代表，常以單側或者不對稱的肢體水腫為表現。例如，血栓靜脈炎導致阻塞處微血管上游的壓力上升，導致更多液體進入組織間隙形成水腫。又譬如骨盆腔腫瘤導致淋巴回流不順，引起下肢的淋巴水腫。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;二、肝的問題：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;全身性的水腫則須考慮心、肝、腎等大系統的毛病。如同先前所述，肝臟是人體最大的化學工廠，負責合成許多蛋白質，當肝臟機能不足失調，合成的白蛋白不夠時，便會引起水腫，這種情形通常出現在嚴重的急性肝炎、猛爆性肝炎，或者肝病末期。&lt;/div&gt;
+&lt;div&gt;肝硬化患者因為門脈高壓，血液回流受阻，一方面造成周邊血管擴張，造成水腫；肝臟淋巴液的製造也增加，形成腹水。一方面因為動脈血管內有效容積減少，刺激腎臟對鈉和水分的滯留，進一步惡化水腫的情形。&lt;/div&gt;
+&lt;div&gt;肝癌末期也常見下肢水腫，除了因為正常肝細胞減少導致合成的白蛋白不足、或合併肝硬化門脈高壓的影響，當腫瘤侵入門靜脈或壓迫下腔靜脈，下肢的血液無法回流至心臟，也會形成水腫。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;三、腎臟的問題：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;水腫也是腎臟疾病常見的表現，可見於各種腎炎、腎病症候群和慢性腎衰竭。腎臟是人體調節水分的主要器官，當病變導致水分無法正常排出體外，或者白蛋白異常地從尿液中流失，水分的滯留和白蛋白的減少，都會造成水腫。腎臟病的水腫常常是全身性的，輕症從眼瞼和面部水腫開始，後進展到全身，與肝臟多見於下肢且合併腹水的水腫不大相同。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;四、心臟的問題：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;心臟則是維持血液循環最重要的「幫浦」，當心臟衰竭時，沒有足夠的血流流過腎臟，導致排尿減少；幫浦也不夠力將血液打回至心臟，導致血液鬱積在下肢，引起水腫。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;五、長期營養不良：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;慢性的蛋白質攝取不足，或者消化道疾患造成蛋白質吸收不良，導致肝臟合成白蛋白的原料不足，也會引起水腫。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;strong&gt;六、藥物因素：&lt;/strong&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;藥物的副作用也是造成下肢水腫的因素之一。例如因長期身體疼痛服用的非類固醇消炎止痛藥（NSAIDs），或者高血壓患者所服用的血管擴張劑或鈣離子阻斷劑等。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;檢查釐清病因&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;由於造成腳腫的原因眾多，發現長時間不消退的水腫請務必到醫療院所檢查。醫師會藉由病史詢問以及其他症狀分析、詳盡的理學檢查來找出原因。例如，肝硬化造成的水腫常合併腹水、黃疸、蜘蛛痣等慢性肝病表現；心衰竭患者常合併喘、心臟擴大、心雜音和頸靜脈怒張。進一步會抽血檢驗肝腎功能以及白蛋白是否有異常。必要時可能需要做超音波、尿液分析等檢查。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;肝硬化引起水腫 飲食需限鹽&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;如果是肝硬化引起的水腫，要解決腳腫不適，首先會先建議病人限制鹽分。一般要求，鈉一天要少於2公克，約等於一湯匙5公克以下的鹽分，建議從新鮮食物中攝取自然鹽分即可，盡量不要額外添加，所以也要避免攝取含鈉量高的加工食品、醃漬、罐頭類食品等。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;適量的利尿劑可以減緩水腫和腹水的不適，但因根源問題在肝硬化，藥物只能治標不治本，使用上要格外小心。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;補充白蛋白效果有限&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;水腫跟白蛋白過少有關，所以當肝硬化程度嚴重，飲食和用藥都無法解決時，可以考慮從靜脈注射補充白蛋白來緩解症狀，健保對此也有嚴格的給付標準，若因肝腎等疾病造成血清白蛋白下降到2.5g/dL以下，才能使用，一次用量限25g。不過，白蛋白在體內會不斷地代謝更新，若肝臟功能不好，無論補充多少，白蛋白半衰期為21天，最終仍會流失，因此額外補充效果有限。若肝硬化已經到此階段，使用最大劑量利尿劑治療無效又需要不間斷補充白蛋白時，肝臟移植就應該列入考慮。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;肝硬化的併發症很多，除了腳腫、腹水外，也會造成肝腎症候群、肝腦病變、胃食道靜脈曲張或出血等，治療上都頗為棘手。為了避免上述併發症，預防才是最重要的策略，包括B肝、C肝患者需定期回診檢查，必要時可使用抗病毒藥物治療，並儘量少喝酒、不亂服藥物等，才能阻止肝臟惡化成肝硬化。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;白蛋白的重要性&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;體內的白蛋白能維持血液中滲透壓的恆定，同時也是血液中運輸蛋白質很重要載體，它可將不溶於水的物質帶到身體其他所需的地方，例如外來的藥物，或者是人體內可自行生成的脂肪酸、膽紅素、荷爾蒙等，都需要靠白蛋白來搬運。因此，若體內的白蛋白過低，除了會造成水腫外，也會出現其他問題。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;一般健康成人的白蛋白數值約在3.5～5.5g/dL之間，大約要下降到3.0g/dL以下時，才會引發腳水腫。臨床上，會一併參考「球蛋白」的數值，通常血漿中的白蛋白是多於球蛋白的；若是檢查結果發現白蛋白/球蛋白的比值小於1時，就要警覺可能有疾病纏身。&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;白蛋白（albumin）的正常值──3.5～5.5g/dL&lt;br&gt;球蛋白（globulin）的正常值──2.5～3.5g/dL&lt;/div&gt;
+&lt;div&gt;白蛋白比球蛋白（A/G ratio）的正常比值──約1.2～2.2&lt;/div&gt;
+&lt;div&gt;白蛋白過低可能是～肝硬化、腎病症後群、營養不良&lt;/div&gt;
+&lt;div&gt;球蛋白過高可能是～慢性肝炎、肝硬化&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;Q如何判斷是水腫而不是肥胖？&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;A門診最簡便的判斷方式，是請病人拉起褲管，用手指指腹按壓足踝或脛骨旁的皮膚，手指放開後，觀察按壓處皮膚回彈的速度。用手壓按再放開卻不會立即恢復，維持下陷狀態，就是水腫，不是肥胖，如右圖紅圈處。&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569380273.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f177adb5-07e4-4759-b6f4-1f72874e7125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALT (血清麩胺酸丙酮酸轉氨基酶)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;ALT (血清麩胺酸丙酮酸轉氨基酶)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;ALT (血清麩胺酸丙酮酸轉氨基酶)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-10-23&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;它有個家喻互曉的舊名字，GPT(有時寫成sGPT，表示是血中GPT的意思)。正因它是赫赫有名的肝指數，反而罕有人能寫出它的中文名。ALT主要存在於肝細胞中，平常人血液中只有少量的存在。若肝細胞遭到破壞，肝細胞中的ALT會流到血液中，造成ALT的上升。而它不同於GOT的地方在於，GOT也存在於心臟細胞，如果單獨檢驗GOT，就不是知道是心臟有問題還是肝臟有問題。因此，ALT可以單獨檢驗，作為肝炎的初步篩檢；也常和GOT哥倆好一對寶，成對檢驗，讓醫師推測肝炎的原因。最完整的陣容中，ALT是所謂肝指數七項的一員，讓醫師判斷是哪種肝膽疾病。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;一般在介紹醫學檢驗的項目時，通常都會寫：某項目上升時可能是什麼疾病或症狀。在此，不打算這麼寫，怕民眾自己當起醫生來。更重要的是，會讓民眾誤以為ALT沒有上升，就表示肝臟沒問題。錯！還得看看肝臟超音波再說。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569383458.jpg" alt="血清麩胺酸丙酮酸轉氨基酶"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569379598.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d07cb9af-ba7c-4340-91b3-34410cd6fb1e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTH (促腎上腺皮質素)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;ACTH (促腎上腺皮質素)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;ACTH (促腎上腺皮質素)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-11-01&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;span style="font-size: 18px; color: #003366;"&gt;&lt;strong&gt;ACTH (促腎上腺皮質素)&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;生理學有個名詞：「&lt;strong&gt;&lt;span style="color: #993366;"&gt;負廻饋作用&lt;/span&gt;&lt;/strong&gt;」，大概是指某個「產品」過剩時，它會反過來壓抑它的「訂單」。最著名的例子是&lt;span style="color: #993366;"&gt;&lt;strong&gt;甲狀腺素&lt;/strong&gt;&lt;/span&gt;，當它過多時，大腦會減少甲狀腺素的訂單「甲狀腺刺激素」的分泌，以減少甲狀腺素的製造。ACTH，是可體醇(Cortisol)的訂單，也是大腦所分泌。當可體醇過多時，例如庫欣氏症，訂定單ACTH會減少；反之，例如&lt;span style="color: #993366;"&gt;&lt;strong&gt;愛廸生症&lt;/strong&gt;&lt;/span&gt;，&lt;strong&gt;ACTH會上升&lt;/strong&gt;。所以，ACTH主要用來診斷上述兩種疾病。&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color: #993300;"&gt;以下文章引用自udn元氣網：&lt;/span&gt;&lt;a href="https://health.udn.com/health/story/5974/3197855"&gt;https://health.udn.com/health/story/5974/3197855&lt;/a&gt;&lt;/strong&gt;&lt;br&gt;&lt;span style="font-size: 24px;"&gt;&lt;strong&gt;&lt;br&gt;皮膚白不回來 原來是罹患「愛迪生氏病」&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="11"&gt;-------------&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="11"&gt;58歲的李姓婦人罹有重症肌無力的自體免疫疾病，以往夏天務農曬黑後，總在冬天白回來，但今年冬天結束皮膚卻比往常黑，還感到疲倦，原本不以為意，直到月前因腸胃炎急診，原來她罹患了「原發性腎上腺機能不全」經藥物治療後，幾天內疲倦感完全消失，3個月後皮膚也慢慢白回來。&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="12"&gt;亞洲大學附屬醫院新陳代謝科主治醫師徐盛邦表示，李婦的免疫系統比一般人差，但一直服用藥物控制良好，長年下來與疾病和平共處，但急診時「促腎上腺皮質激素」（ACTH）數值竟比正常人多10倍以上，故確診為「原發性腎上腺機能不全」。經補充可體松（cortisone） ，她不但疲倦感全然消失，皮膚也慢慢白了回來。&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="13"&gt;徐盛邦說，原發性腎上腺機能不全（又名愛迪生氏病）是一種罕見的內分泌疾病，台灣約每10萬人口中有一例，多因自體免疫失調，使得腎上腺皮質遭到破壞，症狀包括皮膚色素沉著、容易疲倦、血壓偏低、身體電解質異常（鈉離子低，鉀離子高）等。美國總統甘迺迪亦曾患此病，而此病是由英國醫師湯瑪斯·愛迪生於1855年首先描述。&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="14"&gt;他指出，此疾病在身體表現最明顯是黑色素增加，除了受陽光照射處會變黑產生斑點外，身體一些受壓處及易摩擦處（如手肘、膝蓋、皮帶摩擦處）和沒有照到陽光的部位（如掌紋、嘴唇內側、牙齦），都可能出現色素沉澱。&lt;/p&gt;
+&lt;p class="canvas-atom canvas-text Mb(1.0em) Mb(0)--sm Mt(0.8em)--sm" data-reactid="15"&gt;徐盛邦提醒，民眾若患有已知的自體免疫疾病，合併出現疲倦、低血壓及皮膚變黑等症狀，便應赴醫詳盡檢查；若為原發性腎上腺機能不全患者，平時外出應隨身攜帶卡片，詳載病名及所使用的藥物，以備意外發生時，醫護人員可做適當的處置和治療。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569379111.jpg" alt="促腎上腺皮質素"&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569379193.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4a15f2ed-c732-4cb4-8dce-aab84991f5d4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adenosine Deaminase (腺核苷去胺酶)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;Adenosine Deaminase (腺核苷去胺酶)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;Adenosine Deaminase (腺核苷去胺酶)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-10-09&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;這個檢驗很特別，不是驗血液、尿液，而是「&lt;span style="color: #993366;"&gt;&lt;strong&gt;胸水&lt;/strong&gt;&lt;/span&gt;」(如同腹腔內的水叫「腹水」，胸腔內的水叫「胸水」)。&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;br&gt;Adenosine Deaminase是參與淋巴球活化的蛋白質，發生感染的部份就會有Adenosine Deaminase的上升，它暗示著「感染」!&lt;br&gt;結核桿菌感染肺部。稱為肺結核；依此類推，感染&lt;strong&gt;肺以外的其他地方&lt;/strong&gt;，稱為&lt;span style="color: #993366;"&gt;&lt;strong&gt;肺外結核&lt;/strong&gt;&lt;/span&gt;。最常見的肺外結核，就是離肺臟最近的肋膜腔。結核桿菌入侵的結果，造成肋膜腔發炎，產生的膿水就積在肋膜腔，俗稱「&lt;span style="color: #993366;"&gt;&lt;strong&gt;肺積水&lt;/strong&gt;&lt;/span&gt;」。&lt;br&gt;要從肋膜積液中檢驗結核桿菌，不管是顯微鏡觀察還是培養，都猶如大海撈針。所以，退而求其次，查驗&lt;span style="color: #0000ff;"&gt;&lt;strong&gt;ADA&lt;/strong&gt;&lt;/span&gt;這種感染的指標，反而是較可靠的方法。&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569383219.jpg" alt="結核桿菌"&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;span style="color: #993300;"&gt;&lt;strong&gt;以下文章引用自康健知識庫：&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;a href="https://kb.commonhealth.com.tw/library/73.html?fbclid=IwAR2OH2jHf4mzX44se7NkARsCX6x-uNq_pp-JCkXcuHMOVzmFVrz0ea3d9Hk" target="_blank" rel="noopener nofollow" data-ft="{" data-lynx-mode="async" data-lynx-uri="https://l.facebook.com/l.php?u=https%3A%2F%2Fkb.commonhealth.com.tw%2Flibrary%2F73.html%3Ffbclid%3DIwAR2OH2jHf4mzX44se7NkARsCX6x-uNq_pp-JCkXcuHMOVzmFVrz0ea3d9Hk&amp;amp;h=AT1JosV66bTyxzIJ1HL0X-7pgdFTRPGWDQl-j4CNs8sYqINSatde_CrQrA1wMdsYAzEClwyTDd8cInB6cA0KZZ7Kn_ZO8NC_bdZkPq3yWVEvQZYbuiXLLLBdvZGcI4XvvOc7BlTWZz2eQi2QLVL72hzed2B0xcZtb9gNPszQg6i5uiNPM05jIWtESR-rpiLj43s20nP6zdt3yb5yLlA2KoJaLu-zEnf2Ivcyycb1C4ctg0E4RyE9o3llUyHeAIHsQ_B1lkieO8CDFOQm2-dhdYHL4byQF6ZgjcguhHEXSiHNmO4Rx7rEoHZs5ajnZ_OYlGMUSF0tUeeFfuLaROrE_Qzxs2rFa7sm3XKGmqZGivMtOMQ90h4OwjC3_iYZJ2xMji2FOSymd4eTXb-BdSkoL54WBKbVig0At_wRP6zncLw74MpYULWZO8guQjdRb4t_d-od84uQYuR0vDu2MODCSCduEA7WEyNADIl786hal4yLdr2yhrB3Pbr6hlv7blCcnd2OZksY4Xu3L8UYhO4c-wm1zjs-OgnDCX5aMk7ACn0HlQtSGxbYpq33p8BzJY9tDxko5myQrvYSumjPJSICI8oBk5h0OMLdwLoOceG5thG5PvsLu7GFTO2UcYmSmN4"&gt;https://kb.commonhealth.com.tw/library/73.html&lt;/a&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;什麼是肺結核？&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;
+&lt;p&gt;肺結核，顧名思義就是有「&lt;span style="color: #993366;"&gt;&lt;strong&gt;結核&lt;/strong&gt;&lt;/span&gt;」的病理組織出現在肺部，結核桿菌入侵肺臟所引起，經由&lt;strong&gt;&lt;span style="color: #993366;"&gt;Ｘ光檢查&lt;/span&gt;&lt;/strong&gt;可以很快就能夠發現，是目前篩檢上最大的利器之一。肺結核過去曾稱為肺癆，台灣以前常傳出集體感染的問題，在推動「卡介苗」接種後，感染案例已經減少很多，直至今日仍偶有發生，不可完全輕忽。&lt;span style="color: #333399;"&gt;&lt;strong&gt;結核桿菌&lt;/strong&gt;&lt;/span&gt;能以&lt;span style="color: #993366;"&gt;&lt;strong&gt;飛沫&lt;/strong&gt;&lt;/span&gt;或&lt;span style="color: #993366;"&gt;&lt;strong&gt;空氣&lt;/strong&gt;&lt;/span&gt;進行傳染，感染後常出現的症狀是&lt;span style="color: #333399;"&gt;&lt;strong&gt;發燒&lt;/strong&gt;&lt;/span&gt;與&lt;strong&gt;&lt;span style="color: #333399;"&gt;胸痛&lt;/span&gt;&lt;/strong&gt;，且容易&lt;span style="color: #333399;"&gt;&lt;strong&gt;合併肋膜積水&lt;/strong&gt;&lt;/span&gt;的狀況。病人需注意是否成為帶菌者（另外專業常用開放性肺結核病人），治療期間盡量隔離在家，減少接觸人群造成感染，需養成&lt;span style="color: #993366;"&gt;&lt;strong&gt;進出公共場所嚴格配戴口罩&lt;/strong&gt;&lt;/span&gt;的衛生習慣。若不遵守，往往造成防疫上的困難。目前已有抗生素能夠治療肺結核，但許多肺結核的病人往往當症狀減輕就隨即停藥，沒有聽從醫師指示將完整療程的抗生素吃完，導致體內的結核桿菌沒有全部殺死，而讓結核桿菌產生抗藥性的問題，造成醫療與防治的困擾。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;引起肺結核的原因有哪些？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;p&gt;肺結核是受到結核桿菌的感染，入侵肺部所造成，傳染途徑有飛沫或是空氣傳染兩種方式：&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;飛沫傳染&lt;/strong&gt;&lt;/span&gt;：帶菌的肺結核病人（或稱開放性肺結核病人）常在吐痰、咳嗽、講話、唱歌或大笑時，產生帶有結核桿菌的飛沫，如果不小心吸入病人產生的飛沫，就有可能被傳染。&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;&lt;span style="color: #333399;"&gt;空氣傳染&lt;/span&gt;&lt;/strong&gt;：而當上述提到的飛沫黏在空氣中的塵埃上，即使飛沫乾燥後，受感染的塵埃還是具有傳染力，如果不小心吸入帶有塵埃的空氣，就有機會被傳染。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;肺結核病患會有哪些症狀呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;p&gt;肺結核的症狀五花八門，而在初感染時可能也不會有任何症狀發生，且症狀的過程較慢，病況也時好時壞，而肺結核的症狀大多有&lt;strong&gt;超過兩周&lt;/strong&gt;的咳嗽、胃口不佳、體重減輕、無故疲倦、咳血或是午後發燒等症狀。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;肺結核是如何分期的呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;潛伏期&lt;/strong&gt;&lt;/span&gt;：一般而言，從受到感染到初發病灶出現，大約須&lt;strong&gt;&lt;span style="color: #993366;"&gt;4～12週&lt;/span&gt;&lt;/strong&gt;；而從&lt;strong&gt;感染後&lt;span style="color: #993366;"&gt;6～12個月&lt;/span&gt;&lt;/strong&gt;是病程繼續進行到肺結核的最危險期，此時可能會開始出現臨床上的症狀。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;可傳染期&lt;/strong&gt;&lt;/span&gt;：理論上，只要痰液中有活的結核菌就可屬&lt;span style="color: #993366;"&gt;&lt;strong&gt;傳染期&lt;/strong&gt;&lt;/span&gt;，而傳染力取決於排出的結核菌數目、毒性、環境、通風程度等不同因素，此時期也可稱作開放性肺結核，而當&lt;strong&gt;用藥治療&lt;span style="color: #993366;"&gt;2～3周&lt;/span&gt;&lt;/strong&gt;後，&lt;strong&gt;傳染力會大幅降低&lt;/strong&gt;，變成非開放性肺結核。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;div class="panel-heading"&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;肺結核要如何診斷呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;痰液結核菌抹片檢查&lt;/strong&gt;&lt;/span&gt;：若檢驗結果為陽性則表示痰液可能有結核菌，是診斷肺結核病是否具傳染力的主要方法。但最後仍以痰液的培養結果，若有長出典型結核菌株，表示確定為結核菌感染。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;胸部X光或電腦斷層&lt;/strong&gt;&lt;/span&gt;：當懷疑有結核菌感染時，可用於確定病灶和侵犯的部位，但檢驗結果還是以痰液檢查為最後診斷依據。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;img src="https://www.upl.com.tw/upload/1569377034.jpg" alt="肺結核病灶" width="404" height="373"&gt;&lt;/p&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;肺結核要如何治療呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;p&gt;一般而言，肺結核的治療需&lt;span style="color: #333399;"&gt;&lt;strong&gt;合併多種藥物以避免抗藥性&lt;/strong&gt;&lt;/span&gt;，且需&lt;span style="color: #333399;"&gt;&lt;strong&gt;長期規律&lt;/strong&gt;&lt;/span&gt;地服用藥物，一般療程約&lt;span style="color: #993366;"&gt;&lt;strong&gt;六個月到兩年&lt;/strong&gt;&lt;/span&gt;不等，須遵照醫師指示服用，絕對不可擅自停藥，若未癒前擅自停藥，則可能又從非開放性肺結核惡化為開放性肺結核。&lt;/p&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;如何預防肺結核發生？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;口罩&lt;/strong&gt;&lt;/span&gt;：口罩可以避免口鼻吸入病患所排出的結核病毒，是目前防範結核病毒最有效的手段之一。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;分食&lt;/strong&gt;&lt;/span&gt;：與病患一同用餐時，建議使用公筷母匙或乾脆分食。病患使用過的餐具用熱水滾燙5分鐘，即可殺菌。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;環境空氣流通&lt;/strong&gt;&lt;/span&gt;：密閉的空間會助長結核菌的傳染力，增加空氣流通，才能減少被波及的可能，而陽光裡的紫外線可以殺死結核菌。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;得到肺結核後，應該要怎樣保養呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;p&gt;肺結核病患在病後應做好&lt;span style="color: #993366;"&gt;&lt;strong&gt;定期的追蹤檢查&lt;/strong&gt;&lt;/span&gt;，並且按時服藥，用藥頻率通常為一天服用一次，視自己的生活作息方便性在每日固定時間服用，也可請家人幫忙提醒每天是否有服藥，絕不可因為自己的症狀好轉而擅自停藥，是否停藥最終仍須以醫師診斷結果做依據。&lt;/p&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;這些人得到肺結核機率很高！&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;年長者&lt;/li&gt;
+&lt;li&gt;糖尿病患者&lt;/li&gt;
+&lt;li&gt;塵肺症患者&lt;/li&gt;
+&lt;li&gt;長期服用免疫抑制劑（類固醇）者&lt;/li&gt;
+&lt;li&gt;免疫機能不全者&lt;/li&gt;
+&lt;li&gt;腎臟病患者&lt;/li&gt;
+&lt;/ul&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;肺結核會有哪些併發症呢？&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;支氣管擴張症&lt;/strong&gt;&lt;/span&gt;： 意即支氣管永久性的擴張，造成呼吸道彎曲、鬆弛且膨大，因此稍有感染，則大量黏稠甚至化膿性分泌物，會滯留在呼吸道內不易咳出，可能會有久咳或呼吸困難等症狀。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;氣胸&lt;/strong&gt;&lt;/span&gt;： 肺組織由於疾病而變得脆弱，而容易破裂導致氣胸。&lt;/li&gt;
+&lt;li&gt;&lt;span style="color: #333399;"&gt;&lt;strong&gt;膿胸&lt;/strong&gt;&lt;/span&gt;： 胸腔因為結核菌感染而積膿，時間一長即成為結核性膿胸。&lt;/li&gt;
+&lt;/ul&gt;
+&lt;div class="panel-heading"&gt;
+&lt;h4 class="panel-title"&gt;&lt;span style="font-size: 18px;"&gt;&lt;strong&gt;貼心提醒&lt;/strong&gt;&lt;/span&gt;&lt;/h4&gt;
+&lt;/div&gt;
+&lt;p&gt;請注意，並沒有任何一種或一組方法適用於所有病人，一般表格內建議的治療方法並非絕對不變， 請您務必與醫師充分討論。&lt;/p&gt;
+&lt;/div&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569377204.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fcc5fa61-ed40-44fb-86c0-ab85f6204212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activated Clotting Time (活化凝固時間試驗)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;Activated Clotting Time (活化凝固時間試驗)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;Activated Clotting Time (活化凝固時間試驗)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-10-02&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;在冠狀動脈繞道手術、冠狀動脈裝支架等「開心」手術，由於心臟在「施工中」，人體的血液必需暫時「改道」，到「人工心肺體外循環機」中，再回到人體。但因血液一旦離開人體而遇到人造物體時，會活化血小板而凝固，因此醫師必需在手術過程投予高量的抗凝固劑(例如: 肝素)。而且，抗凝固劑的劑量，必需在凝血與出血之間，維持平衡。這時，醫師必需檢測病人的Activated Clotting Time (活化凝固時間試驗)。醫檢師們請注意！這時病人凝血功能的評估，不同於中濃度的抗凝固劑治療，PT、aPTT並不適用。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;img style="width: auto; height: auto; max-width: 100%; max-height: 100%;" src="https://www.upl.com.tw/upload/1569383121.jpg" alt="活化凝固時間試驗"&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1570062788.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-10-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40d9b81f-3f28-4d9e-9c4c-aa8198ac78a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acid Fast Stain (耐酸性染色法)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+			&lt;div class="breadcrumb"&gt;+ &lt;a href="/"&gt;首頁&lt;/a&gt; &amp;gt; &lt;a href="/news.php"&gt;最新消息&lt;/a&gt; &amp;gt; &lt;a href="/news.php?sid=44"&gt;醫學檢驗 A to Z&lt;/a&gt; &amp;gt; &lt;a href="#" class="current"&gt;Acid Fast Stain (耐酸性染色法)&lt;/a&gt;&lt;/div&gt;
+			&lt;div class="newsTitle"&gt;Acid Fast Stain (耐酸性染色法)&lt;/div&gt;
+			&lt;div&gt;&lt;span class="poster"&gt;優品生醫&lt;/span&gt; / 2019-09-25&lt;/div&gt;
+			&lt;div class="line"&gt;&lt;/div&gt;
+			&lt;p&gt;&lt;strong&gt;&lt;span style="color: #003366;"&gt;結核病&lt;/span&gt;&lt;/strong&gt;號稱是「&lt;span style="color: #993366;"&gt;&lt;strong&gt;白死病&lt;/strong&gt;&lt;/span&gt;」，是已知自古埃及以來一直困擾人類的疾病，但原因不明。直到1882年，德國微生物學家柯霍(Heinrich Hermann Robert Koch)證明了結核病是結核桿菌所造成，是一種傳染病，而不是當時所認為的遺傳病。當柯霍在講座中發表他在結核桿菌的研究，聽眾中有一位學生埃利希(Paul Ehrlich)，讚嘆：「這是科學上最偉大的實驗!」。然而，埃利希對於柯霍在細菌染色技術上，覺得遜了點。柯霍用甲基藍來對結核桿菌染色，以便在顯微鏡下觀察。不過，藍通通的一片，使結核桿菌和雜菌、雜質，傻傻分不清楚。&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;br&gt;埃利希對於血球染色本有相當的研究，因此他採用了&lt;span style="color: #993366;"&gt;&lt;strong&gt;Ziehl–Neelsen染色法&lt;/strong&gt;&lt;/span&gt;：先用一種紅色染劑來染細菌，這時所有細菌雜質都會被種紅色染色染上。之後，以酸酒精洗去紅色染劑。由於結核桿菌有防酸的特異功能，所以酸酒精無法洗去之前染上的紅色染劑。此時，只有結核桿菌會呈紅色，其餘雜菌雜質都被脫色了。最後，再以甲基藍將背景染成藍色。於是，若在顯微鏡下找到「萬藍叢中一條紅」，那是結核桿菌。這種染色法不但配色漂亮，而且讓結核桿菌無所遁形。所以，這種染色法也一直沿到現今。&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;br&gt;當然，這位傑出的學生，日後也因在免疫學研究上的成就，獲得諾貝爾獎！&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;span class="text_exposed_show"&gt;&lt;img src="http://www.upl.com.tw/upload/1569375750.jpg" alt="" width="300" height="467"&gt;&lt;/span&gt;&lt;/p&gt;&lt;br&gt;
+			&lt;a href="javascript:history.back()" class="btn_back"&gt;回列表頁&lt;/a&gt;
+		</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.upl.com.tw/upload/1569375639.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-25</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1041,6 +1748,518 @@
         <x:v>62</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Detail.xlsx
+++ b/Detail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -46,10 +46,22 @@
     <x:t>Publisher</x:t>
   </x:si>
   <x:si>
-    <x:t>ea75c69c-d503-4f63-8fbf-a4b30efdce10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2b8ba87b-7887-4e91-9679-3a6ffa956b2c</x:t>
+    <x:t>InitUID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InitDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModifiedUID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModifiedDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a1208a92-5430-4be0-bc1e-6155b94a73a8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b2ef1efa-c4c2-4897-bf3d-28218b0f4078</x:t>
   </x:si>
   <x:si>
     <x:t>信品醫事檢驗所公告-109年度休假日</x:t>
@@ -81,7 +93,13 @@
     <x:t>信品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>fc3d332b-d065-4e9c-9ceb-c9ddbcdcda7e</x:t>
+    <x:t>BD3A1EFC-17FD-4EC7-8E8D-F7926E30268C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-02 11:20:03.930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10ae3ff9-0ce9-4dd9-a1b9-9b0330d3836f</x:t>
   </x:si>
   <x:si>
     <x:t>醫品診所/台灣優品醫事檢驗所公告-109年公休日</x:t>
@@ -109,7 +127,7 @@
     <x:t>台灣優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>07747085-1ddc-4aff-a060-ebfecc9dc1bf</x:t>
+    <x:t>bc704d93-507d-4afc-8fa1-6dc0c5344033</x:t>
   </x:si>
   <x:si>
     <x:t>慈惠診所/優品醫事檢驗所公告-109年公休日</x:t>
@@ -138,7 +156,7 @@
     <x:t>高雄優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>b34b13f3-8ddb-4dd5-bb8a-056a60c000b4</x:t>
+    <x:t>c9fc4a24-99a6-40e5-9a9f-d6040d592c9d</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所(桃園)-109年度休假日</x:t>
@@ -160,7 +178,7 @@
     <x:t>https://www.upl.com.tw/upload/1575539787.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>0d2777b5-68a7-439e-99e5-f0c43cdbd532</x:t>
+    <x:t>3d7e691a-dd68-4e9c-a456-c748e0dcb21c</x:t>
   </x:si>
   <x:si>
     <x:t>歡迎 國立中山大學人力資源管理所的企業參訪</x:t>
@@ -188,7 +206,7 @@
     <x:t>2019-11-20</x:t>
   </x:si>
   <x:si>
-    <x:t>e07a4620-05a5-45e0-a11f-46e4e3e40819</x:t>
+    <x:t>d2982e22-7b3e-41ec-b6c2-579c1aea2f92</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所搬新家囉！</x:t>
@@ -215,7 +233,7 @@
     <x:t>2019-10-11</x:t>
   </x:si>
   <x:si>
-    <x:t>3d49339e-bbdc-40f4-82af-27bde2cd6bf8</x:t>
+    <x:t>e0ac7ae4-b35d-4b7c-822f-8574498f9bb9</x:t>
   </x:si>
   <x:si>
     <x:t>感謝高雄市立小港醫院 陳柏志 總級醫檢師　蒞臨指導</x:t>
@@ -242,7 +260,7 @@
     <x:t>2019-10-24</x:t>
   </x:si>
   <x:si>
-    <x:t>c9e47b96-73a4-48a1-a528-be49759badbb</x:t>
+    <x:t>e0e1c6c4-823a-4d61-9137-f4f225de0869</x:t>
   </x:si>
   <x:si>
     <x:t>歡迎大嘉醫療集團蒞臨參訪高雄優品醫事檢驗所</x:t>
@@ -277,7 +295,7 @@
     <x:t>2019-09-21</x:t>
   </x:si>
   <x:si>
-    <x:t>b5e05cc1-3224-426d-8d09-4b1a9cac222d</x:t>
+    <x:t>0d982338-fac8-4947-be3e-077a18c25f0c</x:t>
   </x:si>
   <x:si>
     <x:t>慈惠診所/優品醫事檢驗所公告-108年公休日</x:t>
@@ -303,7 +321,7 @@
     <x:t>2018-11-27</x:t>
   </x:si>
   <x:si>
-    <x:t>2bdfc2fd-d33c-4a12-88ef-2818797108db</x:t>
+    <x:t>f092329b-464a-42db-ae36-7639c6138ed1</x:t>
   </x:si>
   <x:si>
     <x:t>台灣優品醫事檢驗所(桃園)-108年度休假日</x:t>
@@ -329,10 +347,10 @@
     <x:t>桃園優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>97b75573-dd49-41af-8fdb-ec151631751b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79b4eb7d-cff1-47b3-96f9-b985346b134c</x:t>
+    <x:t>9f26b118-42fb-4003-81a7-61a0c4516037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d5b3a41-a0c9-4872-8857-a014ee07c64d</x:t>
   </x:si>
   <x:si>
     <x:t>信品醫事檢驗所-感恩套組專案</x:t>
@@ -389,7 +407,7 @@
     <x:t>優品生醫</x:t>
   </x:si>
   <x:si>
-    <x:t>4f3ed32f-a936-45c6-a24d-2265d4a7429c</x:t>
+    <x:t>db2905e6-3917-4e32-aeb0-56f7599eaff5</x:t>
   </x:si>
   <x:si>
     <x:t>【心血管健康管理檢查】專案</x:t>
@@ -435,7 +453,7 @@
     <x:t>2019-12-06</x:t>
   </x:si>
   <x:si>
-    <x:t>45e0db52-bff7-4e44-952d-2f11dd220484</x:t>
+    <x:t>6638a138-9130-4f97-979b-b7b48da2e5c8</x:t>
   </x:si>
   <x:si>
     <x:t>※感恩母親節※專案健檢</x:t>
@@ -463,10 +481,10 @@
     <x:t>2019-05-09</x:t>
   </x:si>
   <x:si>
-    <x:t>0c69280b-88a8-488f-b10e-7bfa3d853ffe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e01c95a2-19dd-4d4e-8471-68fa9fb7fda0</x:t>
+    <x:t>7cb7a13b-9986-4b1a-b1f0-7263a694faa5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5030158d-bc73-4667-aee2-2dcc2881fa03</x:t>
   </x:si>
   <x:si>
     <x:t>COVID-19新聞的真假 -- 人造病毒</x:t>
@@ -520,7 +538,7 @@
     <x:t>2020-03-13</x:t>
   </x:si>
   <x:si>
-    <x:t>759645d1-5c43-4594-bec6-0d58b2f46cfa</x:t>
+    <x:t>bd03e595-3f5c-44f2-bd71-019b7bf4d9f9</x:t>
   </x:si>
   <x:si>
     <x:t>COVID-19新聞的真假 -- 吃蝙蝠</x:t>
@@ -552,7 +570,7 @@
     <x:t>2020-02-21</x:t>
   </x:si>
   <x:si>
-    <x:t>d87c9b6a-f9ae-4d64-bde4-df0c7fd66f86</x:t>
+    <x:t>a6c88814-16b3-46ff-b482-8b842038aea3</x:t>
   </x:si>
   <x:si>
     <x:t>關心自己的身體，避免憾事發生！</x:t>
@@ -584,7 +602,7 @@
     <x:t>2019-11-27</x:t>
   </x:si>
   <x:si>
-    <x:t>bd263d9a-5c79-4db6-8838-5a84b59cd51a</x:t>
+    <x:t>efaf1cf1-6abc-47d2-8fd9-f3dddfe763b4</x:t>
   </x:si>
   <x:si>
     <x:t>千金難買早知道</x:t>
@@ -626,7 +644,7 @@
     <x:t>優品健康新知</x:t>
   </x:si>
   <x:si>
-    <x:t>b3500f77-cd26-457c-bec6-7776612c9ef0</x:t>
+    <x:t>366f8a0f-173f-455d-ae79-42dd00cbc389</x:t>
   </x:si>
   <x:si>
     <x:t>突如其來的打擊—心臟猝死</x:t>
@@ -661,7 +679,7 @@
     <x:t>優品醫事檢驗所</x:t>
   </x:si>
   <x:si>
-    <x:t>510d7182-de78-4a16-922a-9841d7660fef</x:t>
+    <x:t>1623c8dd-127a-42ba-8fe3-5eac36148069</x:t>
   </x:si>
   <x:si>
     <x:t>別等到不孕才檢查排卵功能，年過30就可追蹤AMH指數！</x:t>
@@ -694,7 +712,7 @@
     <x:t>大家健康雜誌網站</x:t>
   </x:si>
   <x:si>
-    <x:t>6067a1b6-f674-4769-9ccf-bdc0035749b9</x:t>
+    <x:t>34f8cfa6-a6a4-47e7-8789-fac426e1255f</x:t>
   </x:si>
   <x:si>
     <x:t>醫師同為病友 蔡文展：僵直性脊椎炎患者要注意虹彩炎</x:t>
@@ -719,10 +737,10 @@
     <x:t>健康遠見/滕淑芬</x:t>
   </x:si>
   <x:si>
-    <x:t>b967fa73-71ee-404e-8548-d67884d268f3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99dd2e53-1385-4903-9f69-7183c8cc0d11</x:t>
+    <x:t>24210961-bf6f-4f0c-9746-aa0b72856690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400cd519-80b2-450a-86db-51f43acc6bd2</x:t>
   </x:si>
   <x:si>
     <x:t>Albumin (白蛋白)</x:t>
@@ -828,7 +846,7 @@
     <x:t>2019-10-30</x:t>
   </x:si>
   <x:si>
-    <x:t>f177adb5-07e4-4759-b6f4-1f72874e7125</x:t>
+    <x:t>c32f2b36-a1a5-43ac-853b-f60bd6cb7c03</x:t>
   </x:si>
   <x:si>
     <x:t>ALT (血清麩胺酸丙酮酸轉氨基酶)</x:t>
@@ -854,7 +872,7 @@
     <x:t>2019-10-23</x:t>
   </x:si>
   <x:si>
-    <x:t>d07cb9af-ba7c-4340-91b3-34410cd6fb1e</x:t>
+    <x:t>7e2b706c-6224-4c72-8f2f-5d64451877bc</x:t>
   </x:si>
   <x:si>
     <x:t>ACTH (促腎上腺皮質素)</x:t>
@@ -887,7 +905,7 @@
     <x:t>2019-11-01</x:t>
   </x:si>
   <x:si>
-    <x:t>4a15f2ed-c732-4cb4-8dce-aab84991f5d4</x:t>
+    <x:t>10129475-2a4e-4b49-a21e-2c67e1c7c3a1</x:t>
   </x:si>
   <x:si>
     <x:t>Adenosine Deaminase (腺核苷去胺酶)</x:t>
@@ -986,7 +1004,7 @@
     <x:t>2019-10-09</x:t>
   </x:si>
   <x:si>
-    <x:t>fcc5fa61-ed40-44fb-86c0-ab85f6204212</x:t>
+    <x:t>67d0aaac-2522-4506-b4af-1f81e3548909</x:t>
   </x:si>
   <x:si>
     <x:t>Activated Clotting Time (活化凝固時間試驗)</x:t>
@@ -1010,7 +1028,7 @@
     <x:t>2019-10-02</x:t>
   </x:si>
   <x:si>
-    <x:t>40d9b81f-3f28-4d9e-9c4c-aa8198ac78a9</x:t>
+    <x:t>b067fd94-01b6-45c1-88f9-b73bcdafd56d</x:t>
   </x:si>
   <x:si>
     <x:t>Acid Fast Stain (耐酸性染色法)</x:t>
@@ -1396,7 +1414,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1427,28 +1445,40 @@
       <x:c r="J1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:14">
       <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>1</x:v>
@@ -1457,62 +1487,86 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10">
+    <x:row r="3" spans="1:14">
       <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="H3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14">
+      <x:c r="A4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
         <x:v>1</x:v>
@@ -1521,30 +1575,42 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:14">
       <x:c r="A5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>1</x:v>
@@ -1553,30 +1619,42 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10">
+    <x:row r="6" spans="1:14">
       <x:c r="A6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
         <x:v>1</x:v>
@@ -1585,30 +1663,42 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
+    <x:row r="7" spans="1:14">
       <x:c r="A7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>1</x:v>
@@ -1617,30 +1707,42 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:10">
+    <x:row r="8" spans="1:14">
       <x:c r="A8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
         <x:v>1</x:v>
@@ -1649,30 +1751,42 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:10">
+    <x:row r="9" spans="1:14">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
         <x:v>1</x:v>
@@ -1681,30 +1795,42 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:10">
+    <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
         <x:v>1</x:v>
@@ -1713,30 +1839,42 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:10">
+    <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>1</x:v>
@@ -1745,30 +1883,42 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:10">
+    <x:row r="12" spans="1:14">
       <x:c r="A12" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
         <x:v>1</x:v>
@@ -1777,30 +1927,42 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:10">
+    <x:row r="13" spans="1:14">
       <x:c r="A13" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
         <x:v>1</x:v>
@@ -1809,30 +1971,42 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:10">
+    <x:row r="14" spans="1:14">
       <x:c r="A14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
         <x:v>1</x:v>
@@ -1841,30 +2015,42 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:10">
+    <x:row r="15" spans="1:14">
       <x:c r="A15" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
         <x:v>1</x:v>
@@ -1873,62 +2059,86 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:10">
+    <x:row r="16" spans="1:14">
       <x:c r="A16" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14">
+      <x:c r="A17" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
         <x:v>1</x:v>
@@ -1937,30 +2147,42 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:10">
+    <x:row r="18" spans="1:14">
       <x:c r="A18" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
         <x:v>1</x:v>
@@ -1969,30 +2191,42 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:10">
+    <x:row r="19" spans="1:14">
       <x:c r="A19" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>1</x:v>
@@ -2001,30 +2235,42 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:10">
+    <x:row r="20" spans="1:14">
       <x:c r="A20" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
         <x:v>1</x:v>
@@ -2033,30 +2279,42 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:10">
+    <x:row r="21" spans="1:14">
       <x:c r="A21" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
         <x:v>1</x:v>
@@ -2065,30 +2323,42 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:10">
+    <x:row r="22" spans="1:14">
       <x:c r="A22" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
         <x:v>1</x:v>
@@ -2097,62 +2367,86 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:10">
+    <x:row r="23" spans="1:14">
       <x:c r="A23" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>1</x:v>
@@ -2161,30 +2455,42 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N24" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:10">
+    <x:row r="25" spans="1:14">
       <x:c r="A25" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
         <x:v>1</x:v>
@@ -2193,30 +2499,42 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:10">
+    <x:row r="26" spans="1:14">
       <x:c r="A26" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
         <x:v>1</x:v>
@@ -2225,30 +2543,42 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:10">
+    <x:row r="27" spans="1:14">
       <x:c r="A27" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
         <x:v>1</x:v>
@@ -2257,7 +2587,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
